--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lrpap1-Vldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lrpap1-Vldlr.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.660188000000001</v>
+        <v>9.427210000000001</v>
       </c>
       <c r="H2">
-        <v>19.980564</v>
+        <v>28.28163</v>
       </c>
       <c r="I2">
-        <v>0.1500148400131262</v>
+        <v>0.2188083857550241</v>
       </c>
       <c r="J2">
-        <v>0.1500148400131261</v>
+        <v>0.2188083857550241</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1112246666666667</v>
+        <v>0.1528053333333333</v>
       </c>
       <c r="N2">
-        <v>0.333674</v>
+        <v>0.458416</v>
       </c>
       <c r="O2">
-        <v>0.008007360146089434</v>
+        <v>0.01103433215988526</v>
       </c>
       <c r="P2">
-        <v>0.008007360146089434</v>
+        <v>0.01103433215988526</v>
       </c>
       <c r="Q2">
-        <v>0.7407771902373333</v>
+        <v>1.440527966453333</v>
       </c>
       <c r="R2">
-        <v>6.666994712136</v>
+        <v>12.96475169808</v>
       </c>
       <c r="S2">
-        <v>0.001201222851243089</v>
+        <v>0.002414404407789243</v>
       </c>
       <c r="T2">
-        <v>0.001201222851243089</v>
+        <v>0.002414404407789243</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.660188000000001</v>
+        <v>9.427210000000001</v>
       </c>
       <c r="H3">
-        <v>19.980564</v>
+        <v>28.28163</v>
       </c>
       <c r="I3">
-        <v>0.1500148400131262</v>
+        <v>0.2188083857550241</v>
       </c>
       <c r="J3">
-        <v>0.1500148400131261</v>
+        <v>0.2188083857550241</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>35.475684</v>
       </c>
       <c r="O3">
-        <v>0.851329675722</v>
+        <v>0.8539197603380489</v>
       </c>
       <c r="P3">
-        <v>0.8513296757219999</v>
+        <v>0.8539197603380488</v>
       </c>
       <c r="Q3">
-        <v>78.75824162286402</v>
+        <v>111.47890765388</v>
       </c>
       <c r="R3">
-        <v>708.8241746057761</v>
+        <v>1003.31016888492</v>
       </c>
       <c r="S3">
-        <v>0.1277120851018624</v>
+        <v>0.1868448043238856</v>
       </c>
       <c r="T3">
-        <v>0.1277120851018624</v>
+        <v>0.1868448043238855</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.660188000000001</v>
+        <v>9.427210000000001</v>
       </c>
       <c r="H4">
-        <v>19.980564</v>
+        <v>28.28163</v>
       </c>
       <c r="I4">
-        <v>0.1500148400131262</v>
+        <v>0.2188083857550241</v>
       </c>
       <c r="J4">
-        <v>0.1500148400131261</v>
+        <v>0.2188083857550241</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.915914</v>
+        <v>1.712948333333333</v>
       </c>
       <c r="N4">
-        <v>5.747742000000001</v>
+        <v>5.138845</v>
       </c>
       <c r="O4">
-        <v>0.1379317544094067</v>
+        <v>0.1236949029880405</v>
       </c>
       <c r="P4">
-        <v>0.1379317544094067</v>
+        <v>0.1236949029880405</v>
       </c>
       <c r="Q4">
-        <v>12.760347431832</v>
+        <v>16.14832365748333</v>
       </c>
       <c r="R4">
-        <v>114.843126886488</v>
+        <v>145.33491291735</v>
       </c>
       <c r="S4">
-        <v>0.02069181007045696</v>
+        <v>0.02706548204893745</v>
       </c>
       <c r="T4">
-        <v>0.02069181007045696</v>
+        <v>0.02706548204893745</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.660188000000001</v>
+        <v>9.427210000000001</v>
       </c>
       <c r="H5">
-        <v>19.980564</v>
+        <v>28.28163</v>
       </c>
       <c r="I5">
-        <v>0.1500148400131262</v>
+        <v>0.2188083857550241</v>
       </c>
       <c r="J5">
-        <v>0.1500148400131261</v>
+        <v>0.2188083857550241</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.03793733333333333</v>
+        <v>0.1571906666666667</v>
       </c>
       <c r="N5">
-        <v>0.113812</v>
+        <v>0.471572</v>
       </c>
       <c r="O5">
-        <v>0.002731209722503793</v>
+        <v>0.01135100451402528</v>
       </c>
       <c r="P5">
-        <v>0.002731209722503793</v>
+        <v>0.01135100451402528</v>
       </c>
       <c r="Q5">
-        <v>0.2526697722186667</v>
+        <v>1.481869424706667</v>
       </c>
       <c r="R5">
-        <v>2.274027949968</v>
+        <v>13.33682482236</v>
       </c>
       <c r="S5">
-        <v>0.0004097219895637013</v>
+        <v>0.002483694974411864</v>
       </c>
       <c r="T5">
-        <v>0.0004097219895637011</v>
+        <v>0.002483694974411863</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>49.230993</v>
       </c>
       <c r="I6">
-        <v>0.3696281815959916</v>
+        <v>0.3808887290954196</v>
       </c>
       <c r="J6">
-        <v>0.3696281815959916</v>
+        <v>0.3808887290954196</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.1112246666666667</v>
+        <v>0.1528053333333333</v>
       </c>
       <c r="N6">
-        <v>0.333674</v>
+        <v>0.458416</v>
       </c>
       <c r="O6">
-        <v>0.008007360146089434</v>
+        <v>0.01103433215988526</v>
       </c>
       <c r="P6">
-        <v>0.008007360146089434</v>
+        <v>0.01103433215988526</v>
       </c>
       <c r="Q6">
-        <v>1.825233595364666</v>
+        <v>2.507586098565333</v>
       </c>
       <c r="R6">
-        <v>16.427102358282</v>
+        <v>22.568274887088</v>
       </c>
       <c r="S6">
-        <v>0.002959745970183252</v>
+        <v>0.004202852752795413</v>
       </c>
       <c r="T6">
-        <v>0.002959745970183252</v>
+        <v>0.004202852752795413</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>49.230993</v>
       </c>
       <c r="I7">
-        <v>0.3696281815959916</v>
+        <v>0.3808887290954196</v>
       </c>
       <c r="J7">
-        <v>0.3696281815959916</v>
+        <v>0.3808887290954196</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>35.475684</v>
       </c>
       <c r="O7">
-        <v>0.851329675722</v>
+        <v>0.8539197603380489</v>
       </c>
       <c r="P7">
-        <v>0.8513296757219999</v>
+        <v>0.8539197603380488</v>
       </c>
       <c r="Q7">
         <v>194.055905630468</v>
@@ -883,10 +883,10 @@
         <v>1746.503150674212</v>
       </c>
       <c r="S7">
-        <v>0.3146754399758281</v>
+        <v>0.3252484122646248</v>
       </c>
       <c r="T7">
-        <v>0.3146754399758281</v>
+        <v>0.3252484122646247</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>49.230993</v>
       </c>
       <c r="I8">
-        <v>0.3696281815959916</v>
+        <v>0.3808887290954196</v>
       </c>
       <c r="J8">
-        <v>0.3696281815959916</v>
+        <v>0.3808887290954196</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.915914</v>
+        <v>1.712948333333333</v>
       </c>
       <c r="N8">
-        <v>5.747742000000001</v>
+        <v>5.138845</v>
       </c>
       <c r="O8">
-        <v>0.1379317544094067</v>
+        <v>0.1236949029880405</v>
       </c>
       <c r="P8">
-        <v>0.1379317544094067</v>
+        <v>0.1236949029880405</v>
       </c>
       <c r="Q8">
-        <v>31.440782907534</v>
+        <v>28.11004913589833</v>
       </c>
       <c r="R8">
-        <v>282.967046167806</v>
+        <v>252.990442223085</v>
       </c>
       <c r="S8">
-        <v>0.05098346356669391</v>
+        <v>0.04711399439469597</v>
       </c>
       <c r="T8">
-        <v>0.05098346356669391</v>
+        <v>0.04711399439469596</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>49.230993</v>
       </c>
       <c r="I9">
-        <v>0.3696281815959916</v>
+        <v>0.3808887290954196</v>
       </c>
       <c r="J9">
-        <v>0.3696281815959916</v>
+        <v>0.3808887290954196</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.03793733333333333</v>
+        <v>0.1571906666666667</v>
       </c>
       <c r="N9">
-        <v>0.113812</v>
+        <v>0.471572</v>
       </c>
       <c r="O9">
-        <v>0.002731209722503793</v>
+        <v>0.01135100451402528</v>
       </c>
       <c r="P9">
-        <v>0.002731209722503793</v>
+        <v>0.01135100451402528</v>
       </c>
       <c r="Q9">
-        <v>0.6225641972573333</v>
+        <v>2.579550870110667</v>
       </c>
       <c r="R9">
-        <v>5.603077775315999</v>
+        <v>23.215957830996</v>
       </c>
       <c r="S9">
-        <v>0.00100953208328637</v>
+        <v>0.00432346968330346</v>
       </c>
       <c r="T9">
-        <v>0.00100953208328637</v>
+        <v>0.004323469683303459</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.847447</v>
+        <v>7.213061</v>
       </c>
       <c r="H10">
-        <v>20.542341</v>
+        <v>21.639183</v>
       </c>
       <c r="I10">
-        <v>0.1542326832520885</v>
+        <v>0.1674173200514808</v>
       </c>
       <c r="J10">
-        <v>0.1542326832520885</v>
+        <v>0.1674173200514808</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.1112246666666667</v>
+        <v>0.1528053333333333</v>
       </c>
       <c r="N10">
-        <v>0.333674</v>
+        <v>0.458416</v>
       </c>
       <c r="O10">
-        <v>0.008007360146089434</v>
+        <v>0.01103433215988526</v>
       </c>
       <c r="P10">
-        <v>0.008007360146089434</v>
+        <v>0.01103433215988526</v>
       </c>
       <c r="Q10">
-        <v>0.7616050100926666</v>
+        <v>1.102194190458667</v>
       </c>
       <c r="R10">
-        <v>6.854445090833999</v>
+        <v>9.919747714127999</v>
       </c>
       <c r="S10">
-        <v>0.001234996641097208</v>
+        <v>0.001847338318765858</v>
       </c>
       <c r="T10">
-        <v>0.001234996641097208</v>
+        <v>0.001847338318765858</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.847447</v>
+        <v>7.213061</v>
       </c>
       <c r="H11">
-        <v>20.542341</v>
+        <v>21.639183</v>
       </c>
       <c r="I11">
-        <v>0.1542326832520885</v>
+        <v>0.1674173200514808</v>
       </c>
       <c r="J11">
-        <v>0.1542326832520885</v>
+        <v>0.1674173200514808</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>35.475684</v>
       </c>
       <c r="O11">
-        <v>0.851329675722</v>
+        <v>0.8539197603380489</v>
       </c>
       <c r="P11">
-        <v>0.8513296757219999</v>
+        <v>0.8539197603380488</v>
       </c>
       <c r="Q11">
-        <v>80.972621992916</v>
+        <v>85.29609090290801</v>
       </c>
       <c r="R11">
-        <v>728.7535979362441</v>
+        <v>767.664818126172</v>
       </c>
       <c r="S11">
-        <v>0.1313028602187344</v>
+        <v>0.1429609578147989</v>
       </c>
       <c r="T11">
-        <v>0.1313028602187344</v>
+        <v>0.1429609578147989</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.847447</v>
+        <v>7.213061</v>
       </c>
       <c r="H12">
-        <v>20.542341</v>
+        <v>21.639183</v>
       </c>
       <c r="I12">
-        <v>0.1542326832520885</v>
+        <v>0.1674173200514808</v>
       </c>
       <c r="J12">
-        <v>0.1542326832520885</v>
+        <v>0.1674173200514808</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.915914</v>
+        <v>1.712948333333333</v>
       </c>
       <c r="N12">
-        <v>5.747742000000001</v>
+        <v>5.138845</v>
       </c>
       <c r="O12">
-        <v>0.1379317544094067</v>
+        <v>0.1236949029880405</v>
       </c>
       <c r="P12">
-        <v>0.1379317544094067</v>
+        <v>0.1236949029880405</v>
       </c>
       <c r="Q12">
-        <v>13.119119571558</v>
+        <v>12.35560081818167</v>
       </c>
       <c r="R12">
-        <v>118.072076144022</v>
+        <v>111.200407363635</v>
       </c>
       <c r="S12">
-        <v>0.02127358458823088</v>
+        <v>0.02070866916228564</v>
       </c>
       <c r="T12">
-        <v>0.02127358458823088</v>
+        <v>0.02070866916228564</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.847447</v>
+        <v>7.213061</v>
       </c>
       <c r="H13">
-        <v>20.542341</v>
+        <v>21.639183</v>
       </c>
       <c r="I13">
-        <v>0.1542326832520885</v>
+        <v>0.1674173200514808</v>
       </c>
       <c r="J13">
-        <v>0.1542326832520885</v>
+        <v>0.1674173200514808</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.03793733333333333</v>
+        <v>0.1571906666666667</v>
       </c>
       <c r="N13">
-        <v>0.113812</v>
+        <v>0.471572</v>
       </c>
       <c r="O13">
-        <v>0.002731209722503793</v>
+        <v>0.01135100451402528</v>
       </c>
       <c r="P13">
-        <v>0.002731209722503793</v>
+        <v>0.01135100451402528</v>
       </c>
       <c r="Q13">
-        <v>0.2597738793213333</v>
+        <v>1.133825867297333</v>
       </c>
       <c r="R13">
-        <v>2.337964913892</v>
+        <v>10.204432805676</v>
       </c>
       <c r="S13">
-        <v>0.0004212418040259519</v>
+        <v>0.001900354755630373</v>
       </c>
       <c r="T13">
-        <v>0.0004212418040259519</v>
+        <v>0.001900354755630373</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.478895</v>
+        <v>10.03371566666667</v>
       </c>
       <c r="H14">
-        <v>43.436685</v>
+        <v>30.101147</v>
       </c>
       <c r="I14">
-        <v>0.3261242951387937</v>
+        <v>0.2328855650980756</v>
       </c>
       <c r="J14">
-        <v>0.3261242951387937</v>
+        <v>0.2328855650980756</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.1112246666666667</v>
+        <v>0.1528053333333333</v>
       </c>
       <c r="N14">
-        <v>0.333674</v>
+        <v>0.458416</v>
       </c>
       <c r="O14">
-        <v>0.008007360146089434</v>
+        <v>0.01103433215988526</v>
       </c>
       <c r="P14">
-        <v>0.008007360146089434</v>
+        <v>0.01103433215988526</v>
       </c>
       <c r="Q14">
-        <v>1.610410270076667</v>
+        <v>1.533205267016889</v>
       </c>
       <c r="R14">
-        <v>14.49369243069</v>
+        <v>13.798847403152</v>
       </c>
       <c r="S14">
-        <v>0.002611394683565885</v>
+        <v>0.002569736680534748</v>
       </c>
       <c r="T14">
-        <v>0.002611394683565885</v>
+        <v>0.002569736680534748</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.478895</v>
+        <v>10.03371566666667</v>
       </c>
       <c r="H15">
-        <v>43.436685</v>
+        <v>30.101147</v>
       </c>
       <c r="I15">
-        <v>0.3261242951387937</v>
+        <v>0.2328855650980756</v>
       </c>
       <c r="J15">
-        <v>0.3261242951387937</v>
+        <v>0.2328855650980756</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>35.475684</v>
       </c>
       <c r="O15">
-        <v>0.851329675722</v>
+        <v>0.8539197603380489</v>
       </c>
       <c r="P15">
-        <v>0.8513296757219999</v>
+        <v>0.8539197603380488</v>
       </c>
       <c r="Q15">
-        <v>171.21623456306</v>
+        <v>118.6509754455054</v>
       </c>
       <c r="R15">
-        <v>1540.94611106754</v>
+        <v>1067.858779009548</v>
       </c>
       <c r="S15">
-        <v>0.2776392904255751</v>
+        <v>0.1988655859347398</v>
       </c>
       <c r="T15">
-        <v>0.2776392904255751</v>
+        <v>0.1988655859347398</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.478895</v>
+        <v>10.03371566666667</v>
       </c>
       <c r="H16">
-        <v>43.436685</v>
+        <v>30.101147</v>
       </c>
       <c r="I16">
-        <v>0.3261242951387937</v>
+        <v>0.2328855650980756</v>
       </c>
       <c r="J16">
-        <v>0.3261242951387937</v>
+        <v>0.2328855650980756</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.915914</v>
+        <v>1.712948333333333</v>
       </c>
       <c r="N16">
-        <v>5.747742000000001</v>
+        <v>5.138845</v>
       </c>
       <c r="O16">
-        <v>0.1379317544094067</v>
+        <v>0.1236949029880405</v>
       </c>
       <c r="P16">
-        <v>0.1379317544094067</v>
+        <v>0.1236949029880405</v>
       </c>
       <c r="Q16">
-        <v>27.74031763503</v>
+        <v>17.18723652835723</v>
       </c>
       <c r="R16">
-        <v>249.6628587152701</v>
+        <v>154.685128755215</v>
       </c>
       <c r="S16">
-        <v>0.04498289618402497</v>
+        <v>0.02880675738212145</v>
       </c>
       <c r="T16">
-        <v>0.04498289618402497</v>
+        <v>0.02880675738212145</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.478895</v>
+        <v>10.03371566666667</v>
       </c>
       <c r="H17">
-        <v>43.436685</v>
+        <v>30.101147</v>
       </c>
       <c r="I17">
-        <v>0.3261242951387937</v>
+        <v>0.2328855650980756</v>
       </c>
       <c r="J17">
-        <v>0.3261242951387937</v>
+        <v>0.2328855650980756</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.03793733333333333</v>
+        <v>0.1571906666666667</v>
       </c>
       <c r="N17">
-        <v>0.113812</v>
+        <v>0.471572</v>
       </c>
       <c r="O17">
-        <v>0.002731209722503793</v>
+        <v>0.01135100451402528</v>
       </c>
       <c r="P17">
-        <v>0.002731209722503793</v>
+        <v>0.01135100451402528</v>
       </c>
       <c r="Q17">
-        <v>0.5492906659133333</v>
+        <v>1.577206454787111</v>
       </c>
       <c r="R17">
-        <v>4.94361599322</v>
+        <v>14.194858093084</v>
       </c>
       <c r="S17">
-        <v>0.0008907138456277699</v>
+        <v>0.002643485100679584</v>
       </c>
       <c r="T17">
-        <v>0.0008907138456277697</v>
+        <v>0.002643485100679584</v>
       </c>
     </row>
   </sheetData>
